--- a/data_manipulation/filtered_data/alldata.xlsx
+++ b/data_manipulation/filtered_data/alldata.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oagha\Desktop\isye6414\regression-mei-team-proj\data_manipulation\filtered_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE24D58-CD72-40F3-A603-0F8E26E4AF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8558554-016A-4388-8C48-5C018E044883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="620" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>country</t>
   </si>
@@ -68,9 +69,6 @@
     <t>Azerbaijan</t>
   </si>
   <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
     <t>Bahrain</t>
   </si>
   <si>
@@ -143,9 +141,6 @@
     <t>Comoros</t>
   </si>
   <si>
-    <t>Congo</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -539,15 +534,9 @@
     <t>gdp/capita ppp</t>
   </si>
   <si>
-    <t>physicians per 1000 pop</t>
-  </si>
-  <si>
     <t>Laos</t>
   </si>
   <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
     <t>litres_alcohol_per_capita</t>
   </si>
   <si>
@@ -573,6 +562,12 @@
   </si>
   <si>
     <t>UK</t>
+  </si>
+  <si>
+    <t>Psychiatrists working in mental health sector (per 100 000 population)</t>
+  </si>
+  <si>
+    <t>Mental hospitals (per 100 000 population)</t>
   </si>
 </sst>
 </file>
@@ -893,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,41 +903,46 @@
     <col min="5" max="5" width="21.453125" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" customWidth="1"/>
     <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="8" max="9" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -965,16 +965,19 @@
         <v>1955.006208</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="K2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -997,16 +1000,19 @@
         <v>13364.1554</v>
       </c>
       <c r="H3">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="I3">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="K3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1029,16 +1035,19 @@
         <v>15481.787619999999</v>
       </c>
       <c r="H4">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="I4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.55</v>
+      </c>
+      <c r="K4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1061,16 +1070,19 @@
         <v>6452.3551649999999</v>
       </c>
       <c r="H5">
-        <v>0.2</v>
+        <v>6.4</v>
       </c>
       <c r="I5">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1093,16 +1105,19 @@
         <v>20610.56855</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I6">
-        <v>9.8000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>21.704999999999998</v>
+      </c>
+      <c r="K6">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1125,16 +1140,19 @@
         <v>10343.175590000001</v>
       </c>
       <c r="H7">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="I7">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3.84</v>
+      </c>
+      <c r="K7">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1157,16 +1175,19 @@
         <v>51663.365089999999</v>
       </c>
       <c r="H8">
-        <v>3.6</v>
+        <v>10.6</v>
       </c>
       <c r="I8">
-        <v>10.6</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13.525</v>
+      </c>
+      <c r="K8">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1189,16 +1210,19 @@
         <v>55454.689290000002</v>
       </c>
       <c r="H9">
-        <v>5.0999999999999996</v>
+        <v>11.6</v>
       </c>
       <c r="I9">
-        <v>11.6</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>16.14</v>
+      </c>
+      <c r="K9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1221,5141 +1245,5515 @@
         <v>18044.136780000001</v>
       </c>
       <c r="H10">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="I10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3.452</v>
+      </c>
+      <c r="K10">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="C11">
-        <v>2.8</v>
+        <v>7.9</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="E11">
-        <v>6.3754</v>
+        <v>4.8695000000000004</v>
       </c>
       <c r="F11">
-        <v>0.874</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="G11">
-        <v>32087.729149999999</v>
+        <v>47303.048510000001</v>
       </c>
       <c r="H11">
         <v>1.9</v>
       </c>
       <c r="I11">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>5.4669999999999996</v>
+      </c>
+      <c r="K11">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="C12">
-        <v>7.9</v>
+        <v>5.5</v>
       </c>
       <c r="D12">
-        <v>2.1</v>
+        <v>6.7</v>
       </c>
       <c r="E12">
-        <v>4.8695000000000004</v>
+        <v>2.3651</v>
       </c>
       <c r="F12">
-        <v>0.45200000000000001</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="G12">
-        <v>47303.048510000001</v>
+        <v>4371.7549859999999</v>
       </c>
       <c r="H12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.13</v>
+      </c>
+      <c r="K12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6.1</v>
+        <v>0.4</v>
       </c>
       <c r="C13">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="D13">
-        <v>6.7</v>
+        <v>0.3</v>
       </c>
       <c r="E13">
-        <v>2.3651</v>
+        <v>6.9623999999999997</v>
       </c>
       <c r="F13">
-        <v>0.68100000000000005</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="G13">
-        <v>4371.7549859999999</v>
+        <v>18554.129280000001</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>9.6</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>4.08</v>
+      </c>
+      <c r="K13">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.4</v>
+        <v>21.4</v>
       </c>
       <c r="C14">
-        <v>0.8</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="D14">
-        <v>0.3</v>
+        <v>6.2</v>
       </c>
       <c r="E14">
-        <v>6.9623999999999997</v>
+        <v>6.3167999999999997</v>
       </c>
       <c r="F14">
-        <v>0.85899999999999999</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="G14">
-        <v>18554.129280000001</v>
+        <v>19994.804080000002</v>
       </c>
       <c r="H14">
-        <v>2.5</v>
+        <v>11.2</v>
       </c>
       <c r="I14">
-        <v>9.6</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13.504</v>
+      </c>
+      <c r="K14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>21.4</v>
+        <v>15.7</v>
       </c>
       <c r="C15">
-        <v>39.299999999999997</v>
+        <v>22.2</v>
       </c>
       <c r="D15">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="E15">
-        <v>6.3167999999999997</v>
+        <v>10.038399999999999</v>
       </c>
       <c r="F15">
-        <v>0.79600000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="G15">
-        <v>19994.804080000002</v>
+        <v>51407.998339999998</v>
       </c>
       <c r="H15">
-        <v>4.0999999999999996</v>
+        <v>12.1</v>
       </c>
       <c r="I15">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>20.056999999999999</v>
+      </c>
+      <c r="K15">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>15.7</v>
+        <v>5.9</v>
       </c>
       <c r="C16">
-        <v>22.2</v>
+        <v>9.9</v>
       </c>
       <c r="D16">
-        <v>9.4</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>10.038399999999999</v>
+        <v>6.1214000000000004</v>
       </c>
       <c r="F16">
-        <v>0.79</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="G16">
-        <v>51407.998339999998</v>
+        <v>8648.0887999999995</v>
       </c>
       <c r="H16">
-        <v>3.3</v>
+        <v>6.7</v>
       </c>
       <c r="I16">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5.9</v>
+        <v>15.7</v>
       </c>
       <c r="C17">
-        <v>9.9</v>
+        <v>22.6</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>9.6</v>
       </c>
       <c r="E17">
-        <v>6.1214000000000004</v>
+        <v>3.8555999999999999</v>
       </c>
       <c r="F17">
-        <v>0.59699999999999998</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="G17">
-        <v>8648.0887999999995</v>
+        <v>2424.7558450000001</v>
       </c>
       <c r="H17">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.19</v>
+      </c>
+      <c r="K17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>15.7</v>
+        <v>11.6</v>
       </c>
       <c r="C18">
-        <v>22.6</v>
+        <v>13.8</v>
       </c>
       <c r="D18">
-        <v>9.6</v>
+        <v>8.9</v>
       </c>
       <c r="E18">
-        <v>3.8555999999999999</v>
+        <v>3.4542000000000002</v>
       </c>
       <c r="F18">
-        <v>0.86199999999999999</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="G18">
-        <v>2424.7558450000001</v>
+        <v>10167.93406</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="B19">
-        <v>11.6</v>
+        <v>12.9</v>
       </c>
       <c r="C19">
-        <v>13.8</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D19">
         <v>8.9</v>
       </c>
       <c r="E19">
-        <v>3.4542000000000002</v>
+        <v>6.8605999999999998</v>
       </c>
       <c r="F19">
-        <v>0.86299999999999999</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G19">
-        <v>10167.93406</v>
+        <v>7873.1662429999997</v>
       </c>
       <c r="H19">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="I19">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="K19">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>12.9</v>
+        <v>6.4</v>
       </c>
       <c r="C20">
-        <v>16.899999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="D20">
-        <v>8.9</v>
+        <v>2.5</v>
       </c>
       <c r="E20">
-        <v>6.8605999999999998</v>
+        <v>9.2295999999999996</v>
       </c>
       <c r="F20">
-        <v>0.79200000000000004</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="G20">
-        <v>7873.1662429999997</v>
+        <v>14623.67405</v>
       </c>
       <c r="H20">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="I20">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+        <v>8.032</v>
+      </c>
+      <c r="K20">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.4</v>
+        <v>11.5</v>
       </c>
       <c r="C21">
-        <v>10.6</v>
+        <v>18.3</v>
       </c>
       <c r="D21">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
       <c r="E21">
-        <v>9.2295999999999996</v>
+        <v>5.4631999999999996</v>
       </c>
       <c r="F21">
-        <v>0.59599999999999997</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G21">
-        <v>14623.67405</v>
+        <v>18615.79334</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>8.4</v>
       </c>
       <c r="I21">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K21">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.5</v>
+        <v>6.1</v>
       </c>
       <c r="C22">
-        <v>18.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D22">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="E22">
-        <v>5.4631999999999996</v>
+        <v>11.7715</v>
       </c>
       <c r="F22">
-        <v>0.88100000000000001</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G22">
-        <v>18615.79334</v>
+        <v>16096.400960000001</v>
       </c>
       <c r="H22">
-        <v>0.4</v>
+        <v>7.8</v>
       </c>
       <c r="I22">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3.165</v>
+      </c>
+      <c r="K22">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="C23">
-        <v>9.6999999999999993</v>
+        <v>6.2</v>
       </c>
       <c r="D23">
         <v>2.8</v>
       </c>
       <c r="E23">
-        <v>11.7715</v>
+        <v>2.3410000000000002</v>
       </c>
       <c r="F23">
-        <v>0.73499999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G23">
-        <v>16096.400960000001</v>
+        <v>80920.048680000007</v>
       </c>
       <c r="H23">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="I23">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.5</v>
+        <v>7.9</v>
       </c>
       <c r="C24">
-        <v>6.2</v>
+        <v>13.1</v>
       </c>
       <c r="D24">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="E24">
-        <v>2.3410000000000002</v>
+        <v>8.2301000000000002</v>
       </c>
       <c r="F24">
-        <v>0.7</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="G24">
-        <v>80920.048680000007</v>
+        <v>21960.36994</v>
       </c>
       <c r="H24">
-        <v>1.8</v>
+        <v>12.7</v>
       </c>
       <c r="I24">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7.2030000000000003</v>
+      </c>
+      <c r="K24">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.9</v>
+        <v>14.8</v>
       </c>
       <c r="C25">
-        <v>13.1</v>
+        <v>22.4</v>
       </c>
       <c r="D25">
-        <v>3.2</v>
+        <v>9.1</v>
       </c>
       <c r="E25">
-        <v>8.2301000000000002</v>
+        <v>6.7525000000000004</v>
       </c>
       <c r="F25">
-        <v>0.81299999999999994</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="G25">
-        <v>21960.36994</v>
+        <v>1984.8843059999999</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I25">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="D26">
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
       <c r="E26">
-        <v>6.7525000000000004</v>
+        <v>7.6893000000000002</v>
       </c>
       <c r="F26">
-        <v>0.85599999999999998</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="G26">
-        <v>1984.8843059999999</v>
+        <v>744.18207199999995</v>
       </c>
       <c r="H26">
-        <v>0.1</v>
+        <v>7.5</v>
       </c>
       <c r="I26">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.01</v>
+      </c>
+      <c r="K26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>5.9</v>
       </c>
       <c r="C27">
-        <v>23.1</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>7.7</v>
+        <v>3.2</v>
       </c>
       <c r="E27">
-        <v>7.6893000000000002</v>
+        <v>6.0819999999999999</v>
       </c>
       <c r="F27">
-        <v>1.0169999999999999</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="G27">
-        <v>744.18207199999995</v>
+        <v>4360.8544039999997</v>
       </c>
       <c r="H27">
-        <v>0.1</v>
+        <v>6.7</v>
       </c>
       <c r="I27">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.9</v>
+        <v>19.5</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>26.9</v>
       </c>
       <c r="D28">
-        <v>3.2</v>
+        <v>12.5</v>
       </c>
       <c r="E28">
-        <v>6.0819999999999999</v>
+        <v>4.6901999999999999</v>
       </c>
       <c r="F28">
-        <v>0.91200000000000003</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="G28">
-        <v>4360.8544039999997</v>
+        <v>3785.0799780000002</v>
       </c>
       <c r="H28">
-        <v>0.2</v>
+        <v>8.9</v>
       </c>
       <c r="I28">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.03</v>
+      </c>
+      <c r="K28">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>19.5</v>
+        <v>10.4</v>
       </c>
       <c r="C29">
-        <v>26.9</v>
+        <v>15.1</v>
       </c>
       <c r="D29">
-        <v>12.5</v>
+        <v>5.8</v>
       </c>
       <c r="E29">
-        <v>4.6901999999999999</v>
+        <v>10.534700000000001</v>
       </c>
       <c r="F29">
-        <v>0.82899999999999996</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="G29">
-        <v>3785.0799780000002</v>
+        <v>48130.255969999998</v>
       </c>
       <c r="H29">
-        <v>0.1</v>
+        <v>8.9</v>
       </c>
       <c r="I29">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14.679</v>
+      </c>
+      <c r="K29">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30">
+        <v>15.1</v>
+      </c>
+      <c r="C30">
+        <v>24.1</v>
+      </c>
+      <c r="D30">
+        <v>7.7</v>
+      </c>
+      <c r="E30">
+        <v>5.2634999999999996</v>
+      </c>
+      <c r="F30">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G30">
+        <v>7454.0639170000004</v>
+      </c>
+      <c r="H30">
+        <v>5.7</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1.37</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>10.4</v>
-      </c>
-      <c r="C30">
-        <v>15.1</v>
-      </c>
-      <c r="D30">
-        <v>5.8</v>
-      </c>
-      <c r="E30">
-        <v>10.534700000000001</v>
-      </c>
-      <c r="F30">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="G30">
-        <v>48130.255969999998</v>
-      </c>
-      <c r="H30">
-        <v>2.6</v>
-      </c>
-      <c r="I30">
-        <v>8.9</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>162</v>
-      </c>
       <c r="B31">
-        <v>15.1</v>
+        <v>11.6</v>
       </c>
       <c r="C31">
-        <v>24.1</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>5.2634999999999996</v>
+        <v>4.2824999999999998</v>
       </c>
       <c r="F31">
-        <v>0.61199999999999999</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="G31">
-        <v>7454.0639170000004</v>
+        <v>859.9356196</v>
       </c>
       <c r="H31">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="I31">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32">
-        <v>11.6</v>
+        <v>15.5</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>13.8</v>
       </c>
       <c r="E32">
-        <v>4.2824999999999998</v>
+        <v>4.5381</v>
       </c>
       <c r="F32">
-        <v>0.85199999999999998</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="G32">
-        <v>859.9356196</v>
+        <v>1968.2582620000001</v>
       </c>
       <c r="H32">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="I32">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33">
-        <v>15.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C33">
-        <v>17.100000000000001</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>13.8</v>
+        <v>3.8</v>
       </c>
       <c r="E33">
-        <v>4.5381</v>
+        <v>8.5289000000000001</v>
       </c>
       <c r="F33">
-        <v>0.80800000000000005</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="G33">
-        <v>1968.2582620000001</v>
+        <v>25222.52778</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6.97</v>
+      </c>
+      <c r="K33">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34">
-        <v>9.6999999999999993</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>7.9</v>
       </c>
       <c r="D34">
-        <v>3.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E34">
-        <v>8.5289000000000001</v>
+        <v>4.9819000000000004</v>
       </c>
       <c r="F34">
-        <v>0.65700000000000003</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="G34">
-        <v>25222.52778</v>
+        <v>18236.612980000002</v>
       </c>
       <c r="H34">
-        <v>1.1000000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="I34">
-        <v>9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.1989999999999998</v>
+      </c>
+      <c r="K34">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>7.9</v>
+        <v>11.5</v>
       </c>
       <c r="D35">
-        <v>8.3000000000000007</v>
+        <v>2.8</v>
       </c>
       <c r="E35">
-        <v>4.9819000000000004</v>
+        <v>5.9123000000000001</v>
       </c>
       <c r="F35">
-        <v>0.81699999999999995</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="G35">
-        <v>18236.612980000002</v>
+        <v>15012.930270000001</v>
       </c>
       <c r="H35">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="I35">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.835</v>
+      </c>
+      <c r="K35">
+        <v>1.988</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>33</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>11.1</v>
       </c>
       <c r="C36">
-        <v>11.5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D36">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="E36">
-        <v>5.9123000000000001</v>
+        <v>7.6311</v>
       </c>
       <c r="F36">
-        <v>0.69899999999999995</v>
+        <v>0.436</v>
       </c>
       <c r="G36">
-        <v>15012.930270000001</v>
+        <v>2913.3873060000001</v>
       </c>
       <c r="H36">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="I36">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.129</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>34</v>
       </c>
       <c r="B37">
-        <v>11.1</v>
+        <v>7.5</v>
       </c>
       <c r="C37">
-        <v>17.600000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="D37">
-        <v>5.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E37">
-        <v>7.6311</v>
+        <v>7.5556999999999999</v>
       </c>
       <c r="F37">
-        <v>0.436</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="G37">
-        <v>2913.3873060000001</v>
+        <v>17671.09535</v>
       </c>
       <c r="H37">
-        <v>0.2</v>
+        <v>4.8</v>
       </c>
       <c r="I37">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3.931</v>
+      </c>
+      <c r="K37">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38">
-        <v>9.3000000000000007</v>
+        <v>11.5</v>
       </c>
       <c r="C38">
-        <v>13.9</v>
+        <v>18.8</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E38">
-        <v>4.6348000000000003</v>
+        <v>7.1801000000000004</v>
       </c>
       <c r="F38">
-        <v>0.93799999999999994</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="G38">
-        <v>5662.0634110000001</v>
+        <v>27579.78083</v>
       </c>
       <c r="H38">
-        <v>0.1</v>
+        <v>8.9</v>
       </c>
       <c r="I38">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+        <v>11.095000000000001</v>
+      </c>
+      <c r="K38">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
       <c r="B39">
-        <v>7.5</v>
+        <v>10.1</v>
       </c>
       <c r="C39">
-        <v>12.8</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D39">
-        <v>2.2999999999999998</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E39">
-        <v>7.5556999999999999</v>
+        <v>12.1912</v>
       </c>
       <c r="F39">
-        <v>0.58699999999999997</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="G39">
-        <v>17671.09535</v>
+        <v>21016.65</v>
       </c>
       <c r="H39">
-        <v>1.1000000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="I39">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+        <v>9.0559999999999992</v>
+      </c>
+      <c r="K39">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>37</v>
       </c>
       <c r="B40">
-        <v>11.5</v>
+        <v>4.5</v>
       </c>
       <c r="C40">
-        <v>18.8</v>
+        <v>7.2</v>
       </c>
       <c r="D40">
-        <v>5.0999999999999996</v>
+        <v>1.9</v>
       </c>
       <c r="E40">
-        <v>7.1801000000000004</v>
+        <v>6.8796999999999997</v>
       </c>
       <c r="F40">
-        <v>0.76600000000000001</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="G40">
-        <v>27579.78083</v>
+        <v>33047.550000000003</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>10.8</v>
       </c>
       <c r="I40">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7.21</v>
+      </c>
+      <c r="K40">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>38</v>
       </c>
       <c r="B41">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="C41">
-        <v>16.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="D41">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E41">
-        <v>12.1912</v>
+        <v>7.1496000000000004</v>
       </c>
       <c r="F41">
-        <v>0.61799999999999999</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="G41">
-        <v>21016.65</v>
+        <v>39743.597090000003</v>
       </c>
       <c r="H41">
-        <v>8.1999999999999993</v>
+        <v>14.4</v>
       </c>
       <c r="I41">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+        <v>12.364000000000001</v>
+      </c>
+      <c r="K41">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
       <c r="B42">
-        <v>4.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C42">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>1.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E42">
-        <v>6.8796999999999997</v>
+        <v>3.8712</v>
       </c>
       <c r="F42">
-        <v>0.78800000000000003</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="G42">
-        <v>33047.550000000003</v>
+        <v>932.17200679999996</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="I42">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K42">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>40</v>
       </c>
       <c r="B43">
-        <v>10.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C43">
-        <v>17.2</v>
+        <v>13.2</v>
       </c>
       <c r="D43">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="E43">
-        <v>7.1496000000000004</v>
+        <v>10.35</v>
       </c>
       <c r="F43">
-        <v>0.73899999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="G43">
-        <v>39743.597090000003</v>
+        <v>55671.165269999998</v>
       </c>
       <c r="H43">
-        <v>4.3</v>
+        <v>10.4</v>
       </c>
       <c r="I43">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+        <v>17.72</v>
+      </c>
+      <c r="K43">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>41</v>
       </c>
       <c r="B44">
-        <v>9.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>11.9</v>
       </c>
       <c r="D44">
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="E44">
-        <v>3.8712</v>
+        <v>3.5019</v>
       </c>
       <c r="F44">
-        <v>0.96599999999999997</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="G44">
-        <v>932.17200679999996</v>
+        <v>3139.3</v>
       </c>
       <c r="H44">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I44">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K44">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>42</v>
       </c>
       <c r="B45">
-        <v>9.1999999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="C45">
-        <v>13.2</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D45">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="E45">
-        <v>10.35</v>
+        <v>6.1612999999999998</v>
       </c>
       <c r="F45">
-        <v>0.876</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="G45">
-        <v>55671.165269999998</v>
+        <v>17748.185320000001</v>
       </c>
       <c r="H45">
-        <v>4.5</v>
+        <v>6.9</v>
       </c>
       <c r="I45">
-        <v>10.4</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>43</v>
       </c>
       <c r="B46">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="C46">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="D46">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="E46">
-        <v>3.5019</v>
+        <v>8.3871000000000002</v>
       </c>
       <c r="F46">
-        <v>0.53600000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="G46">
-        <v>3139.3</v>
+        <v>11734.38739</v>
       </c>
       <c r="H46">
-        <v>0.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="K46">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>44</v>
       </c>
       <c r="B47">
-        <v>10.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C47">
-        <v>17.899999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="D47">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="E47">
-        <v>6.1612999999999998</v>
+        <v>4.6378000000000004</v>
       </c>
       <c r="F47">
-        <v>0.65100000000000002</v>
+        <v>0.316</v>
       </c>
       <c r="G47">
-        <v>17748.185320000001</v>
+        <v>12412.3094</v>
       </c>
       <c r="H47">
+        <v>0.4</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>1.6</v>
       </c>
-      <c r="I47">
-        <v>6.9</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K47">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>45</v>
       </c>
       <c r="B48">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="C48">
-        <v>10.7</v>
+        <v>24.8</v>
       </c>
       <c r="D48">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="E48">
-        <v>8.3871000000000002</v>
+        <v>6.9577999999999998</v>
       </c>
       <c r="F48">
-        <v>0.65900000000000003</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="G48">
-        <v>11734.38739</v>
+        <v>8331.8041420000009</v>
       </c>
       <c r="H48">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="I48">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="K48">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>46</v>
       </c>
       <c r="B49">
-        <v>4.4000000000000004</v>
+        <v>22</v>
       </c>
       <c r="C49">
-        <v>7.2</v>
+        <v>31.3</v>
       </c>
       <c r="D49">
-        <v>1.7</v>
+        <v>10.8</v>
       </c>
       <c r="E49">
-        <v>4.6378000000000004</v>
+        <v>3.3765000000000001</v>
       </c>
       <c r="F49">
-        <v>0.316</v>
+        <v>0.873</v>
       </c>
       <c r="G49">
-        <v>12412.3094</v>
+        <v>22743.824430000001</v>
       </c>
       <c r="H49">
-        <v>0.8</v>
+        <v>11.3</v>
       </c>
       <c r="I49">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="K49">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>47</v>
       </c>
       <c r="B50">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
       <c r="C50">
-        <v>24.8</v>
+        <v>22.4</v>
       </c>
       <c r="D50">
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
       <c r="E50">
-        <v>6.9577999999999998</v>
+        <v>2.9592999999999998</v>
       </c>
       <c r="F50">
-        <v>0.60299999999999998</v>
+        <v>0.89</v>
       </c>
       <c r="G50">
-        <v>8331.8041420000009</v>
+        <v>2102.9499999999998</v>
       </c>
       <c r="H50">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="I50">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>48</v>
       </c>
       <c r="B51">
-        <v>22</v>
+        <v>14.4</v>
       </c>
       <c r="C51">
-        <v>31.3</v>
+        <v>25.6</v>
       </c>
       <c r="D51">
-        <v>10.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E51">
-        <v>3.3765000000000001</v>
+        <v>6.6837</v>
       </c>
       <c r="F51">
-        <v>0.873</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="G51">
-        <v>22743.824430000001</v>
+        <v>35973.776460000001</v>
       </c>
       <c r="H51">
-        <v>0.4</v>
+        <v>11.6</v>
       </c>
       <c r="I51">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+        <v>16.187999999999999</v>
+      </c>
+      <c r="K51">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>49</v>
       </c>
       <c r="B52">
-        <v>13.8</v>
+        <v>16.7</v>
       </c>
       <c r="C52">
-        <v>22.4</v>
+        <v>25.4</v>
       </c>
       <c r="D52">
-        <v>6.1</v>
+        <v>9.6</v>
       </c>
       <c r="E52">
-        <v>2.9592999999999998</v>
+        <v>7.6969000000000003</v>
       </c>
       <c r="F52">
-        <v>0.89</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="G52">
-        <v>2102.9499999999998</v>
+        <v>10637.84173</v>
       </c>
       <c r="H52">
-        <v>0.1</v>
+        <v>9.9</v>
       </c>
       <c r="I52">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K52">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>50</v>
       </c>
       <c r="B53">
-        <v>14.4</v>
+        <v>11.4</v>
       </c>
       <c r="C53">
-        <v>25.6</v>
+        <v>18.7</v>
       </c>
       <c r="D53">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="E53">
-        <v>6.6837</v>
+        <v>3.9740000000000002</v>
       </c>
       <c r="F53">
-        <v>0.81499999999999995</v>
+        <v>0.875</v>
       </c>
       <c r="G53">
-        <v>35973.776460000001</v>
+        <v>2022.1379609999999</v>
       </c>
       <c r="H53">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="I53">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K53">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>51</v>
       </c>
       <c r="B54">
-        <v>16.7</v>
+        <v>5.5</v>
       </c>
       <c r="C54">
-        <v>25.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D54">
-        <v>9.6</v>
+        <v>2.5</v>
       </c>
       <c r="E54">
-        <v>7.6969000000000003</v>
+        <v>3.4615</v>
       </c>
       <c r="F54">
-        <v>0.61399999999999999</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="G54">
-        <v>10637.84173</v>
+        <v>10879.47846</v>
       </c>
       <c r="H54">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>9.9</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.224</v>
+      </c>
+      <c r="K54">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>52</v>
       </c>
       <c r="B55">
-        <v>11.4</v>
+        <v>13.8</v>
       </c>
       <c r="C55">
-        <v>18.7</v>
+        <v>20.8</v>
       </c>
       <c r="D55">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="E55">
-        <v>3.9740000000000002</v>
+        <v>9.4931000000000001</v>
       </c>
       <c r="F55">
-        <v>0.875</v>
+        <v>0.871</v>
       </c>
       <c r="G55">
-        <v>2022.1379609999999</v>
+        <v>48416.936029999997</v>
       </c>
       <c r="H55">
-        <v>0.1</v>
+        <v>10.7</v>
       </c>
       <c r="I55">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23.585999999999999</v>
+      </c>
+      <c r="K55">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>53</v>
       </c>
       <c r="B56">
-        <v>5.5</v>
+        <v>12.1</v>
       </c>
       <c r="C56">
-        <v>8.8000000000000007</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D56">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="E56">
-        <v>3.4615</v>
+        <v>11.539300000000001</v>
       </c>
       <c r="F56">
-        <v>0.52100000000000002</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="G56">
-        <v>10879.47846</v>
+        <v>45342.39574</v>
       </c>
       <c r="H56">
-        <v>0.8</v>
+        <v>12.6</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+        <v>20.907</v>
+      </c>
+      <c r="K56">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>54</v>
       </c>
       <c r="B57">
-        <v>13.8</v>
+        <v>9.6</v>
       </c>
       <c r="C57">
-        <v>20.8</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="E57">
-        <v>9.4931000000000001</v>
+        <v>3.1128999999999998</v>
       </c>
       <c r="F57">
-        <v>0.871</v>
+        <v>0.86</v>
       </c>
       <c r="G57">
-        <v>48416.936029999997</v>
+        <v>17875.761149999998</v>
       </c>
       <c r="H57">
-        <v>3.8</v>
+        <v>11.5</v>
       </c>
       <c r="I57">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="K57">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>55</v>
       </c>
       <c r="B58">
-        <v>12.1</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>17.899999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="D58">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="E58">
-        <v>11.539300000000001</v>
+        <v>4.4314999999999998</v>
       </c>
       <c r="F58">
-        <v>0.82399999999999995</v>
+        <v>0.87</v>
       </c>
       <c r="G58">
-        <v>45342.39574</v>
+        <v>2612.0009949999999</v>
       </c>
       <c r="H58">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I58">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="K58">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>56</v>
       </c>
       <c r="B59">
-        <v>9.6</v>
+        <v>6.7</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>12.3</v>
       </c>
       <c r="D59">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="E59">
-        <v>3.1128999999999998</v>
+        <v>8.4360999999999997</v>
       </c>
       <c r="F59">
-        <v>0.86</v>
+        <v>0.752</v>
       </c>
       <c r="G59">
-        <v>17875.761149999998</v>
+        <v>12004.573829999999</v>
       </c>
       <c r="H59">
-        <v>0.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I59">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6.7060000000000004</v>
+      </c>
+      <c r="K59">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>57</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="C60">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="D60">
-        <v>7.3</v>
+        <v>4.8</v>
       </c>
       <c r="E60">
-        <v>4.4314999999999998</v>
+        <v>11.139200000000001</v>
       </c>
       <c r="F60">
-        <v>0.87</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="G60">
-        <v>2612.0009949999999</v>
+        <v>53074.540119999998</v>
       </c>
       <c r="H60">
-        <v>0.1</v>
+        <v>13.4</v>
       </c>
       <c r="I60">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13.202</v>
+      </c>
+      <c r="K60">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>58</v>
       </c>
       <c r="B61">
-        <v>6.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C61">
-        <v>12.3</v>
+        <v>15.8</v>
       </c>
       <c r="D61">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="E61">
-        <v>8.4360999999999997</v>
+        <v>4.4486999999999997</v>
       </c>
       <c r="F61">
-        <v>0.752</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="G61">
-        <v>12004.573829999999</v>
+        <v>4746.6849949999996</v>
       </c>
       <c r="H61">
-        <v>5.0999999999999996</v>
+        <v>2.7</v>
       </c>
       <c r="I61">
-        <v>9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K61">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62">
-        <v>9.1</v>
+        <v>3.8</v>
       </c>
       <c r="C62">
-        <v>13.6</v>
+        <v>6.1</v>
       </c>
       <c r="D62">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="E62">
-        <v>11.139200000000001</v>
+        <v>8.4542999999999999</v>
       </c>
       <c r="F62">
-        <v>0.80600000000000005</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="G62">
-        <v>53074.540119999998</v>
+        <v>29592.152419999999</v>
       </c>
       <c r="H62">
-        <v>4.2</v>
+        <v>10.4</v>
       </c>
       <c r="I62">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+        <v>5.8029999999999999</v>
+      </c>
+      <c r="K62">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>60</v>
       </c>
       <c r="B63">
-        <v>8.6999999999999993</v>
+        <v>2.9</v>
       </c>
       <c r="C63">
-        <v>15.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D63">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="E63">
-        <v>4.4486999999999997</v>
+        <v>5.8202999999999996</v>
       </c>
       <c r="F63">
-        <v>0.94399999999999995</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="G63">
-        <v>4746.6849949999996</v>
+        <v>8462.3740080000007</v>
       </c>
       <c r="H63">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="I63">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="K63">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>61</v>
       </c>
       <c r="B64">
-        <v>3.8</v>
+        <v>10.5</v>
       </c>
       <c r="C64">
-        <v>6.1</v>
+        <v>12.7</v>
       </c>
       <c r="D64">
-        <v>1.5</v>
+        <v>8.4</v>
       </c>
       <c r="E64">
-        <v>8.4542999999999999</v>
+        <v>5.4782999999999999</v>
       </c>
       <c r="F64">
-        <v>0.70599999999999996</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="G64">
-        <v>29592.152419999999</v>
+        <v>2504.869745</v>
       </c>
       <c r="H64">
-        <v>4.5999999999999996</v>
+        <v>1.3</v>
       </c>
       <c r="I64">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>62</v>
       </c>
       <c r="B65">
-        <v>2.9</v>
+        <v>7.4</v>
       </c>
       <c r="C65">
-        <v>4.4000000000000004</v>
+        <v>8.9</v>
       </c>
       <c r="D65">
-        <v>1.7</v>
+        <v>6.1</v>
       </c>
       <c r="E65">
-        <v>5.8202999999999996</v>
+        <v>6.0900999999999996</v>
       </c>
       <c r="F65">
-        <v>0.55700000000000005</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="G65">
-        <v>8462.3740080000007</v>
+        <v>1799.0678909999999</v>
       </c>
       <c r="H65">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="I65">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K65">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>63</v>
       </c>
       <c r="B66">
-        <v>10.5</v>
+        <v>30.2</v>
       </c>
       <c r="C66">
-        <v>12.7</v>
+        <v>46.6</v>
       </c>
       <c r="D66">
-        <v>8.4</v>
+        <v>14.2</v>
       </c>
       <c r="E66">
-        <v>5.4782999999999999</v>
+        <v>4.2432999999999996</v>
       </c>
       <c r="F66">
-        <v>0.83699999999999997</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="G66">
-        <v>2504.869745</v>
+        <v>8640.7373700000007</v>
       </c>
       <c r="H66">
-        <v>0.1</v>
+        <v>6.3</v>
       </c>
       <c r="I66">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="K66">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>64</v>
       </c>
       <c r="B67">
-        <v>7.4</v>
+        <v>12.2</v>
       </c>
       <c r="C67">
-        <v>8.9</v>
+        <v>18.3</v>
       </c>
       <c r="D67">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="E67">
-        <v>6.0900999999999996</v>
+        <v>5.3856999999999999</v>
       </c>
       <c r="F67">
-        <v>0.86799999999999999</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="G67">
-        <v>1799.0678909999999</v>
+        <v>1866.617589</v>
       </c>
       <c r="H67">
-        <v>0.2</v>
+        <v>5.8</v>
       </c>
       <c r="I67">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K67">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>65</v>
       </c>
       <c r="B68">
-        <v>30.2</v>
+        <v>3.4</v>
       </c>
       <c r="C68">
-        <v>46.6</v>
+        <v>5.3</v>
       </c>
       <c r="D68">
-        <v>14.2</v>
+        <v>1.7</v>
       </c>
       <c r="E68">
-        <v>4.2432999999999996</v>
+        <v>8.4019999999999992</v>
       </c>
       <c r="F68">
-        <v>0.52300000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="G68">
-        <v>8640.7373700000007</v>
+        <v>5138.7524569999996</v>
       </c>
       <c r="H68">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="K68">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>66</v>
       </c>
       <c r="B69">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="C69">
-        <v>18.3</v>
+        <v>22.2</v>
       </c>
       <c r="D69">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="E69">
-        <v>5.3856999999999999</v>
+        <v>7.3647999999999998</v>
       </c>
       <c r="F69">
-        <v>0.85599999999999998</v>
+        <v>0.746</v>
       </c>
       <c r="G69">
-        <v>1866.617589</v>
+        <v>31102.50275</v>
       </c>
       <c r="H69">
-        <v>0.2</v>
+        <v>11.4</v>
       </c>
       <c r="I69">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+        <v>11.079000000000001</v>
+      </c>
+      <c r="K69">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>67</v>
       </c>
       <c r="B70">
-        <v>3.4</v>
+        <v>13.3</v>
       </c>
       <c r="C70">
-        <v>5.3</v>
+        <v>21.7</v>
       </c>
       <c r="D70">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="E70">
-        <v>8.4019999999999992</v>
+        <v>8.2914999999999992</v>
       </c>
       <c r="F70">
-        <v>0.51300000000000001</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="G70">
-        <v>5138.7524569999996</v>
+        <v>57303.06078</v>
       </c>
       <c r="H70">
-        <v>0.3</v>
+        <v>9.1</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="K70">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>68</v>
       </c>
       <c r="B71">
-        <v>13.6</v>
+        <v>16.5</v>
       </c>
       <c r="C71">
-        <v>22.2</v>
+        <v>18.5</v>
       </c>
       <c r="D71">
-        <v>6.2</v>
+        <v>14.5</v>
       </c>
       <c r="E71">
-        <v>7.3647999999999998</v>
+        <v>3.6212</v>
       </c>
       <c r="F71">
-        <v>0.746</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="G71">
-        <v>31102.50275</v>
+        <v>7762.88177</v>
       </c>
       <c r="H71">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="I71">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="K71">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>69</v>
       </c>
       <c r="B72">
-        <v>13.3</v>
+        <v>3.7</v>
       </c>
       <c r="C72">
-        <v>21.7</v>
+        <v>5.2</v>
       </c>
       <c r="D72">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E72">
+        <v>3.1244999999999998</v>
+      </c>
+      <c r="F72">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="G72">
+        <v>13079.6193</v>
+      </c>
+      <c r="H72">
+        <v>0.8</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.31</v>
+      </c>
+      <c r="K72">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D73">
+        <v>3.1</v>
+      </c>
+      <c r="E73">
+        <v>8.1028000000000002</v>
+      </c>
+      <c r="F73">
+        <v>0.224</v>
+      </c>
+      <c r="G73">
+        <v>19098</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>2.016</v>
+      </c>
+      <c r="K73">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C74">
         <v>4.7</v>
       </c>
-      <c r="E72">
-        <v>8.2914999999999992</v>
-      </c>
-      <c r="F72">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="G72">
-        <v>57303.06078</v>
-      </c>
-      <c r="H72">
-        <v>4</v>
-      </c>
-      <c r="I72">
-        <v>9.1</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73">
-        <v>16.5</v>
-      </c>
-      <c r="C73">
-        <v>18.5</v>
-      </c>
-      <c r="D73">
-        <v>14.5</v>
-      </c>
-      <c r="E73">
-        <v>3.6212</v>
-      </c>
-      <c r="F73">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="G73">
-        <v>7762.88177</v>
-      </c>
-      <c r="H73">
-        <v>0.8</v>
-      </c>
-      <c r="I73">
-        <v>5.7</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74">
-        <v>3.7</v>
-      </c>
-      <c r="C74">
-        <v>5.2</v>
-      </c>
       <c r="D74">
-        <v>2.2000000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="E74">
-        <v>3.1244999999999998</v>
+        <v>3.3121999999999998</v>
       </c>
       <c r="F74">
-        <v>0.60799999999999998</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="G74">
-        <v>13079.6193</v>
+        <v>17435.853930000001</v>
       </c>
       <c r="H74">
         <v>0.4</v>
       </c>
       <c r="I74">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="K74">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>10.9</v>
       </c>
       <c r="C75">
-        <v>4.9000000000000004</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D75">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="E75">
-        <v>8.1028000000000002</v>
+        <v>7.3783000000000003</v>
       </c>
       <c r="F75">
-        <v>0.224</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="G75">
-        <v>19098</v>
+        <v>83203.394679999998</v>
       </c>
       <c r="H75">
-        <v>1.1000000000000001</v>
+        <v>13</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+        <v>17.43</v>
+      </c>
+      <c r="K75">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>72</v>
       </c>
       <c r="B76">
-        <v>4.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="C76">
-        <v>4.7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D76">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="E76">
-        <v>3.3121999999999998</v>
+        <v>7.3144</v>
       </c>
       <c r="F76">
-        <v>0.21099999999999999</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="G76">
-        <v>17435.853930000001</v>
+        <v>39919.169650000003</v>
       </c>
       <c r="H76">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="I76">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="K76">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>73</v>
       </c>
       <c r="B77">
-        <v>10.9</v>
+        <v>5.5</v>
       </c>
       <c r="C77">
-        <v>17.600000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="D77">
+        <v>2.6</v>
+      </c>
+      <c r="E77">
+        <v>8.9354999999999993</v>
+      </c>
+      <c r="F77">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G77">
+        <v>41830.426330000002</v>
+      </c>
+      <c r="H77">
+        <v>7.5</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>5.9779999999999998</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78">
+        <v>23</v>
+      </c>
+      <c r="C78">
+        <v>32</v>
+      </c>
+      <c r="D78">
+        <v>13</v>
+      </c>
+      <c r="E78">
+        <v>4.4036</v>
+      </c>
+      <c r="F78">
+        <v>0.64</v>
+      </c>
+      <c r="G78">
+        <v>4207.0869339999999</v>
+      </c>
+      <c r="H78">
+        <v>8.4</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.13</v>
+      </c>
+      <c r="K78">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>3.2</v>
+      </c>
+      <c r="D79">
+        <v>0.9</v>
+      </c>
+      <c r="E79">
+        <v>6.0724</v>
+      </c>
+      <c r="F79">
+        <v>0.79</v>
+      </c>
+      <c r="G79">
+        <v>9326.6640590000006</v>
+      </c>
+      <c r="H79">
         <v>4.2</v>
       </c>
-      <c r="E77">
-        <v>7.3783000000000003</v>
-      </c>
-      <c r="F77">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="G77">
-        <v>83203.394679999998</v>
-      </c>
-      <c r="H77">
-        <v>3.1</v>
-      </c>
-      <c r="I77">
-        <v>13</v>
-      </c>
-      <c r="J77">
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1.149</v>
+      </c>
+      <c r="K79">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80">
+        <v>14.3</v>
+      </c>
+      <c r="C80">
+        <v>20.5</v>
+      </c>
+      <c r="D80">
+        <v>8.1</v>
+      </c>
+      <c r="E80">
+        <v>10.9261</v>
+      </c>
+      <c r="F80">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="G80">
+        <v>42797.45852</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+      <c r="I80">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78">
-        <v>5.2</v>
-      </c>
-      <c r="C78">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D78">
-        <v>2.4</v>
-      </c>
-      <c r="E78">
-        <v>7.3144</v>
-      </c>
-      <c r="F78">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="G78">
-        <v>39919.169650000003</v>
-      </c>
-      <c r="H78">
-        <v>3.2</v>
-      </c>
-      <c r="I78">
-        <v>3.8</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79">
-        <v>5.5</v>
-      </c>
-      <c r="C79">
-        <v>8.4</v>
-      </c>
-      <c r="D79">
-        <v>2.6</v>
-      </c>
-      <c r="E79">
-        <v>8.9354999999999993</v>
-      </c>
-      <c r="F79">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="G79">
-        <v>41830.426330000002</v>
-      </c>
-      <c r="H79">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I79">
-        <v>7.5</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>176</v>
-      </c>
-      <c r="B80">
-        <v>23</v>
-      </c>
-      <c r="C80">
-        <v>32</v>
-      </c>
-      <c r="D80">
-        <v>13</v>
-      </c>
-      <c r="E80">
-        <v>4.4036</v>
-      </c>
-      <c r="F80">
-        <v>0.64</v>
-      </c>
-      <c r="G80">
-        <v>4207.0869339999999</v>
-      </c>
-      <c r="H80">
-        <v>0.2</v>
-      </c>
-      <c r="I80">
-        <v>8.4</v>
-      </c>
       <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+        <v>11.867000000000001</v>
+      </c>
+      <c r="K80">
+        <v>8.3140000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>76</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="C81">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="D81">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="E81">
-        <v>6.0724</v>
+        <v>5.4682000000000004</v>
       </c>
       <c r="F81">
-        <v>0.79</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="G81">
-        <v>9326.6640590000006</v>
+        <v>9478.9045879999994</v>
       </c>
       <c r="H81">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="I81">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.125</v>
+      </c>
+      <c r="K81">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>77</v>
       </c>
       <c r="B82">
-        <v>14.3</v>
+        <v>22.8</v>
       </c>
       <c r="C82">
-        <v>20.5</v>
+        <v>40.1</v>
       </c>
       <c r="D82">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="E82">
-        <v>10.9261</v>
+        <v>3.5261</v>
       </c>
       <c r="F82">
-        <v>0.68300000000000005</v>
+        <v>0.871</v>
       </c>
       <c r="G82">
-        <v>42797.45852</v>
+        <v>27879.751950000002</v>
       </c>
       <c r="H82">
-        <v>2.4</v>
+        <v>7.7</v>
       </c>
       <c r="I82">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6.26</v>
+      </c>
+      <c r="K82">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>78</v>
       </c>
       <c r="B83">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="C83">
-        <v>4.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D83">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="E83">
-        <v>5.4682000000000004</v>
+        <v>4.5495999999999999</v>
       </c>
       <c r="F83">
-        <v>0.23100000000000001</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="G83">
-        <v>9478.9045879999994</v>
+        <v>3467.556478</v>
       </c>
       <c r="H83">
-        <v>2.2999999999999998</v>
+        <v>3.4</v>
       </c>
       <c r="I83">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.184</v>
+      </c>
+      <c r="K83">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>79</v>
       </c>
       <c r="B84">
-        <v>22.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C84">
-        <v>40.1</v>
+        <v>2.5</v>
       </c>
       <c r="D84">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="E84">
-        <v>3.5261</v>
+        <v>3.9039000000000001</v>
       </c>
       <c r="F84">
-        <v>0.871</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="G84">
-        <v>27879.751950000002</v>
+        <v>72897.562349999993</v>
       </c>
       <c r="H84">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.62</v>
+      </c>
+      <c r="K84">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>80</v>
       </c>
       <c r="B85">
-        <v>5.6</v>
+        <v>9.1</v>
       </c>
       <c r="C85">
-        <v>9.6999999999999993</v>
+        <v>14.8</v>
       </c>
       <c r="D85">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="E85">
-        <v>4.5495999999999999</v>
+        <v>6.6253000000000002</v>
       </c>
       <c r="F85">
-        <v>0.85899999999999999</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="G85">
-        <v>3467.556478</v>
+        <v>3884.7088090000002</v>
       </c>
       <c r="H85">
-        <v>0.2</v>
+        <v>6.2</v>
       </c>
       <c r="I85">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="K85">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C86">
+        <v>12.9</v>
+      </c>
+      <c r="D86">
+        <v>6.1</v>
+      </c>
+      <c r="E86">
+        <v>2.3609</v>
+      </c>
+      <c r="F86">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="G86">
+        <v>7439.5993600000002</v>
+      </c>
+      <c r="H86">
+        <v>10.4</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.03</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>81</v>
       </c>
-      <c r="B86">
+      <c r="B87">
+        <v>17.2</v>
+      </c>
+      <c r="C87">
+        <v>31</v>
+      </c>
+      <c r="D87">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E87">
+        <v>6.2428999999999997</v>
+      </c>
+      <c r="F87">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G87">
+        <v>30304.852500000001</v>
+      </c>
+      <c r="H87">
+        <v>12.9</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>9.9870000000000001</v>
+      </c>
+      <c r="K87">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88">
+        <v>3.2</v>
+      </c>
+      <c r="C88">
+        <v>4.2</v>
+      </c>
+      <c r="D88">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C86">
-        <v>2.5</v>
-      </c>
-      <c r="D86">
-        <v>1.7</v>
-      </c>
-      <c r="E86">
-        <v>3.9039000000000001</v>
-      </c>
-      <c r="F86">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="G86">
-        <v>72897.562349999993</v>
-      </c>
-      <c r="H86">
-        <v>2.6</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87">
-        <v>9.1</v>
-      </c>
-      <c r="C87">
-        <v>14.8</v>
-      </c>
-      <c r="D87">
-        <v>3.7</v>
-      </c>
-      <c r="E87">
-        <v>6.6253000000000002</v>
-      </c>
-      <c r="F87">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="G87">
-        <v>3884.7088090000002</v>
-      </c>
-      <c r="H87">
-        <v>1.9</v>
-      </c>
-      <c r="I87">
-        <v>6.2</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>168</v>
-      </c>
-      <c r="B88">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C88">
-        <v>12.9</v>
-      </c>
-      <c r="D88">
-        <v>6.1</v>
-      </c>
       <c r="E88">
-        <v>2.3609</v>
+        <v>8.0167000000000002</v>
       </c>
       <c r="F88">
-        <v>0.96699999999999997</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="G88">
-        <v>7439.5993600000002</v>
+        <v>13081.107459999999</v>
       </c>
       <c r="H88">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I88">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="K88">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>83</v>
       </c>
       <c r="B89">
-        <v>17.2</v>
+        <v>28.9</v>
       </c>
       <c r="C89">
-        <v>31</v>
+        <v>22.7</v>
       </c>
       <c r="D89">
-        <v>5.0999999999999996</v>
+        <v>32.6</v>
       </c>
       <c r="E89">
-        <v>6.2428999999999997</v>
+        <v>8.0765999999999991</v>
       </c>
       <c r="F89">
-        <v>0.81200000000000006</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="G89">
-        <v>30304.852500000001</v>
+        <v>3219.4571569999998</v>
       </c>
       <c r="H89">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.05</v>
+      </c>
+      <c r="K89">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>84</v>
       </c>
       <c r="B90">
-        <v>3.2</v>
+        <v>13.4</v>
       </c>
       <c r="C90">
-        <v>4.2</v>
+        <v>13.8</v>
       </c>
       <c r="D90">
-        <v>2.2000000000000002</v>
+        <v>13</v>
       </c>
       <c r="E90">
-        <v>8.0167000000000002</v>
+        <v>9.6151</v>
       </c>
       <c r="F90">
-        <v>0.32300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="G90">
-        <v>13081.107459999999</v>
+        <v>1308.6295359999999</v>
       </c>
       <c r="H90">
-        <v>2.2999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="I90">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K90">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>85</v>
       </c>
       <c r="B91">
-        <v>28.9</v>
+        <v>25.7</v>
       </c>
       <c r="C91">
-        <v>22.7</v>
+        <v>47.5</v>
       </c>
       <c r="D91">
-        <v>32.6</v>
+        <v>6.7</v>
       </c>
       <c r="E91">
-        <v>8.0765999999999991</v>
+        <v>6.6715999999999998</v>
       </c>
       <c r="F91">
-        <v>0.80200000000000005</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="G91">
-        <v>3219.4571569999998</v>
+        <v>35461.359100000001</v>
       </c>
       <c r="H91">
-        <v>0.1</v>
+        <v>15</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+        <v>18.452000000000002</v>
+      </c>
+      <c r="K91">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>86</v>
       </c>
       <c r="B92">
-        <v>13.4</v>
+        <v>10.4</v>
       </c>
       <c r="C92">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="D92">
+        <v>5.8</v>
+      </c>
+      <c r="E92">
+        <v>6.1638000000000002</v>
+      </c>
+      <c r="F92">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="G92">
+        <v>113337.42049999999</v>
+      </c>
+      <c r="H92">
         <v>13</v>
       </c>
-      <c r="E92">
-        <v>9.6151</v>
-      </c>
-      <c r="F92">
-        <v>0.9</v>
-      </c>
-      <c r="G92">
-        <v>1308.6295359999999</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
       <c r="I92">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+        <v>17.821000000000002</v>
+      </c>
+      <c r="K92">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>87</v>
       </c>
       <c r="B93">
-        <v>25.7</v>
+        <v>6.9</v>
       </c>
       <c r="C93">
-        <v>47.5</v>
+        <v>10.5</v>
       </c>
       <c r="D93">
-        <v>6.7</v>
+        <v>3.6</v>
       </c>
       <c r="E93">
-        <v>6.6715999999999998</v>
+        <v>6.0035999999999996</v>
       </c>
       <c r="F93">
-        <v>0.84199999999999997</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="G93">
-        <v>35461.359100000001</v>
+        <v>1891.3206680000001</v>
       </c>
       <c r="H93">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="I93">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K93">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>88</v>
       </c>
       <c r="B94">
-        <v>10.4</v>
+        <v>7.8</v>
       </c>
       <c r="C94">
-        <v>15</v>
+        <v>13.7</v>
       </c>
       <c r="D94">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="E94">
-        <v>6.1638000000000002</v>
+        <v>9.8302999999999994</v>
       </c>
       <c r="F94">
-        <v>0.78100000000000003</v>
+        <v>1.042</v>
       </c>
       <c r="G94">
-        <v>113337.42049999999</v>
+        <v>1310.995555</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I94">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>89</v>
       </c>
       <c r="B95">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="C95">
-        <v>10.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D95">
         <v>3.6</v>
       </c>
       <c r="E95">
-        <v>6.0035999999999996</v>
+        <v>3.8022</v>
       </c>
       <c r="F95">
-        <v>0.95799999999999996</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="G95">
-        <v>1891.3206680000001</v>
+        <v>31782.15336</v>
       </c>
       <c r="H95">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="I95">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.048</v>
+      </c>
+      <c r="K95">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>90</v>
       </c>
       <c r="B96">
-        <v>7.8</v>
+        <v>2.7</v>
       </c>
       <c r="C96">
-        <v>13.7</v>
+        <v>3.6</v>
       </c>
       <c r="D96">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="E96">
-        <v>9.8302999999999994</v>
+        <v>10.610799999999999</v>
       </c>
       <c r="F96">
-        <v>1.042</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="G96">
-        <v>1310.995555</v>
+        <v>15307.721939999999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I96">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.39</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>91</v>
       </c>
       <c r="B97">
-        <v>6.2</v>
+        <v>8.9</v>
       </c>
       <c r="C97">
-        <v>8.6999999999999993</v>
+        <v>13.5</v>
       </c>
       <c r="D97">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="E97">
-        <v>3.8022</v>
+        <v>3.8195999999999999</v>
       </c>
       <c r="F97">
-        <v>0.58799999999999997</v>
+        <v>0.622</v>
       </c>
       <c r="G97">
-        <v>31782.15336</v>
+        <v>2316.6552000000001</v>
       </c>
       <c r="H97">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I97">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>92</v>
       </c>
       <c r="B98">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="C98">
-        <v>3.6</v>
+        <v>10.3</v>
       </c>
       <c r="D98">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="E98">
-        <v>10.610799999999999</v>
+        <v>9.2952999999999992</v>
       </c>
       <c r="F98">
-        <v>0.72499999999999998</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G98">
-        <v>15307.721939999999</v>
+        <v>42581.097860000002</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="I98">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+        <v>8.19</v>
+      </c>
+      <c r="K98">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>93</v>
       </c>
       <c r="B99">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="C99">
-        <v>13.5</v>
+        <v>12.1</v>
       </c>
       <c r="D99">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="E99">
-        <v>3.8195999999999999</v>
+        <v>4.2409999999999997</v>
       </c>
       <c r="F99">
-        <v>0.622</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="G99">
-        <v>2316.6552000000001</v>
+        <v>4150.9652459999998</v>
       </c>
       <c r="H99">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K99">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>94</v>
       </c>
       <c r="B100">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C100">
-        <v>10.3</v>
+        <v>12.5</v>
       </c>
       <c r="D100">
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E100">
-        <v>9.2952999999999992</v>
+        <v>5.7457000000000003</v>
       </c>
       <c r="F100">
-        <v>0.57099999999999995</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="G100">
-        <v>42581.097860000002</v>
+        <v>23750.98804</v>
       </c>
       <c r="H100">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I100">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.3820000000000001</v>
+      </c>
+      <c r="K100">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>95</v>
       </c>
       <c r="B101">
-        <v>7.5</v>
+        <v>5.2</v>
       </c>
       <c r="C101">
-        <v>12.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D101">
-        <v>3.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E101">
-        <v>4.2409999999999997</v>
+        <v>5.4690000000000003</v>
       </c>
       <c r="F101">
-        <v>0.36199999999999999</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="G101">
-        <v>4150.9652459999998</v>
+        <v>19844.645670000002</v>
       </c>
       <c r="H101">
-        <v>0.2</v>
+        <v>6.5</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="K101">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>96</v>
       </c>
       <c r="B102">
-        <v>7.3</v>
+        <v>13.3</v>
       </c>
       <c r="C102">
-        <v>12.5</v>
+        <v>23.3</v>
       </c>
       <c r="D102">
-        <v>2.2000000000000002</v>
+        <v>3.8</v>
       </c>
       <c r="E102">
-        <v>5.7457000000000003</v>
+        <v>3.8090000000000002</v>
       </c>
       <c r="F102">
-        <v>0.58499999999999996</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="G102">
-        <v>23750.98804</v>
+        <v>13799.904850000001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="I102">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="K102">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>97</v>
       </c>
       <c r="B103">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="C103">
-        <v>8.1999999999999993</v>
+        <v>2.5</v>
       </c>
       <c r="D103">
-        <v>2.2999999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="E103">
-        <v>5.4690000000000003</v>
+        <v>5.8376999999999999</v>
       </c>
       <c r="F103">
-        <v>0.56299999999999994</v>
+        <v>0.749</v>
       </c>
       <c r="G103">
-        <v>19844.645670000002</v>
+        <v>8586.6386999999995</v>
       </c>
       <c r="H103">
-        <v>2.2000000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="I103">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="K103">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>98</v>
       </c>
       <c r="B104">
-        <v>13.3</v>
+        <v>8.4</v>
       </c>
       <c r="C104">
-        <v>23.3</v>
+        <v>14</v>
       </c>
       <c r="D104">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E104">
-        <v>3.8090000000000002</v>
+        <v>5.0662000000000003</v>
       </c>
       <c r="F104">
-        <v>0.81499999999999995</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="G104">
-        <v>13799.904850000001</v>
+        <v>1459.6984130000001</v>
       </c>
       <c r="H104">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="I104">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K104">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>99</v>
       </c>
       <c r="B105">
-        <v>3.1</v>
+        <v>8.1</v>
       </c>
       <c r="C105">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
       <c r="D105">
-        <v>3.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E105">
-        <v>5.8376999999999999</v>
+        <v>5.0877999999999997</v>
       </c>
       <c r="F105">
-        <v>0.749</v>
+        <v>1.034</v>
       </c>
       <c r="G105">
-        <v>8586.6386999999995</v>
+        <v>6674.0286470000001</v>
       </c>
       <c r="H105">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="I105">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="K105">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>100</v>
       </c>
       <c r="B106">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="C106">
-        <v>14</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D106">
-        <v>4.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E106">
-        <v>5.0662000000000003</v>
+        <v>9.1225000000000005</v>
       </c>
       <c r="F106">
-        <v>0.34699999999999998</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="G106">
-        <v>1459.6984130000001</v>
+        <v>11101.826279999999</v>
       </c>
       <c r="H106">
-        <v>0.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I106">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="J106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.371</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>101</v>
       </c>
       <c r="B107">
-        <v>8.1</v>
+        <v>9.6</v>
       </c>
       <c r="C107">
-        <v>6.3</v>
+        <v>11.4</v>
       </c>
       <c r="D107">
-        <v>9.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="E107">
-        <v>5.0877999999999997</v>
+        <v>6.2944000000000004</v>
       </c>
       <c r="F107">
-        <v>1.034</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="G107">
-        <v>6674.0286470000001</v>
+        <v>3089.5563520000001</v>
       </c>
       <c r="H107">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="K107">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>102</v>
       </c>
       <c r="B108">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="C108">
-        <v>19.399999999999999</v>
+        <v>12.9</v>
       </c>
       <c r="D108">
-        <v>4.9000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="E108">
-        <v>9.1225000000000005</v>
+        <v>10.359299999999999</v>
       </c>
       <c r="F108">
         <v>0.91500000000000004</v>
       </c>
       <c r="G108">
-        <v>11101.826279999999</v>
+        <v>56328.941140000003</v>
       </c>
       <c r="H108">
-        <v>0.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I108">
-        <v>9.8000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+        <v>20.87</v>
+      </c>
+      <c r="K108">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>103</v>
       </c>
       <c r="B109">
-        <v>9.6</v>
+        <v>11.6</v>
       </c>
       <c r="C109">
-        <v>11.4</v>
+        <v>17.3</v>
       </c>
       <c r="D109">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="E109">
-        <v>6.2944000000000004</v>
+        <v>9.2218999999999998</v>
       </c>
       <c r="F109">
-        <v>0.85899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="G109">
-        <v>3089.5563520000001</v>
+        <v>41005.420870000002</v>
       </c>
       <c r="H109">
-        <v>0.7</v>
+        <v>10.7</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+        <v>28.54</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>104</v>
       </c>
       <c r="B110">
-        <v>9.6</v>
+        <v>11.9</v>
       </c>
       <c r="C110">
-        <v>12.9</v>
+        <v>19.2</v>
       </c>
       <c r="D110">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="E110">
-        <v>10.359299999999999</v>
+        <v>8.7463999999999995</v>
       </c>
       <c r="F110">
-        <v>0.91500000000000004</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="G110">
-        <v>56328.941140000003</v>
+        <v>5533.5510640000002</v>
       </c>
       <c r="H110">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="I110">
-        <v>8.6999999999999993</v>
+        <v>1</v>
       </c>
       <c r="J110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="K110">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>105</v>
       </c>
       <c r="B111">
-        <v>11.6</v>
+        <v>9</v>
       </c>
       <c r="C111">
-        <v>17.3</v>
+        <v>11.5</v>
       </c>
       <c r="D111">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="E111">
-        <v>9.2218999999999998</v>
+        <v>6.2289000000000003</v>
       </c>
       <c r="F111">
-        <v>0.84</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="G111">
-        <v>41005.420870000002</v>
+        <v>1063.4218410000001</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I111">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>106</v>
       </c>
       <c r="B112">
-        <v>11.9</v>
+        <v>17.3</v>
       </c>
       <c r="C112">
-        <v>19.2</v>
+        <v>17.5</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E112">
-        <v>8.7463999999999995</v>
+        <v>3.6467000000000001</v>
       </c>
       <c r="F112">
-        <v>0.58699999999999997</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="G112">
-        <v>5533.5510640000002</v>
+        <v>5990.8504320000002</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>13.4</v>
       </c>
       <c r="I112">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.09</v>
+      </c>
+      <c r="K112">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>107</v>
       </c>
       <c r="B113">
-        <v>9</v>
+        <v>10.1</v>
       </c>
       <c r="C113">
-        <v>11.5</v>
+        <v>13.6</v>
       </c>
       <c r="D113">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E113">
-        <v>6.2289000000000003</v>
+        <v>10.5006</v>
       </c>
       <c r="F113">
-        <v>0.44400000000000001</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="G113">
-        <v>1063.4218410000001</v>
+        <v>65510.585270000003</v>
       </c>
       <c r="H113">
-        <v>0.1</v>
+        <v>7.5</v>
       </c>
       <c r="I113">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+        <v>48.04</v>
+      </c>
+      <c r="K113">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>108</v>
       </c>
       <c r="B114">
-        <v>17.3</v>
+        <v>3.5</v>
       </c>
       <c r="C114">
-        <v>17.5</v>
+        <v>4.8</v>
       </c>
       <c r="D114">
-        <v>17.100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="E114">
-        <v>3.6467000000000001</v>
+        <v>4.2925000000000004</v>
       </c>
       <c r="F114">
-        <v>0.75700000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="G114">
-        <v>5990.8504320000002</v>
+        <v>41859.934480000004</v>
       </c>
       <c r="H114">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I114">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.738</v>
+      </c>
+      <c r="K114">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>109</v>
       </c>
       <c r="B115">
-        <v>10.1</v>
+        <v>3.1</v>
       </c>
       <c r="C115">
-        <v>13.6</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="E115">
-        <v>10.5006</v>
+        <v>2.7528000000000001</v>
       </c>
       <c r="F115">
-        <v>0.88500000000000001</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="G115">
-        <v>65510.585270000003</v>
+        <v>5567.0556079999997</v>
       </c>
       <c r="H115">
-        <v>4.5999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="I115">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+      <c r="K115">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>110</v>
       </c>
       <c r="B116">
-        <v>3.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C116">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="D116">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="E116">
-        <v>4.2925000000000004</v>
+        <v>7.2606999999999999</v>
       </c>
       <c r="F116">
-        <v>0.35</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="G116">
-        <v>41859.934480000004</v>
+        <v>25553.69671</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>7.9</v>
       </c>
       <c r="I116">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="K116">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>111</v>
       </c>
       <c r="B117">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D117">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="E117">
-        <v>2.7528000000000001</v>
+        <v>1.9758</v>
       </c>
       <c r="F117">
-        <v>0.29399999999999998</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="G117">
-        <v>5567.0556079999997</v>
+        <v>4336.2446570000002</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I117">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="K117">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>112</v>
       </c>
       <c r="B118">
-        <v>4.4000000000000004</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C118">
-        <v>7.6</v>
+        <v>12.3</v>
       </c>
       <c r="D118">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="E118">
-        <v>7.2606999999999999</v>
+        <v>8.0249000000000006</v>
       </c>
       <c r="F118">
-        <v>0.59799999999999998</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="G118">
-        <v>25553.69671</v>
+        <v>13599.92656</v>
       </c>
       <c r="H118">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="I118">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.31</v>
+      </c>
+      <c r="K118">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>113</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C119">
-        <v>10.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="D119">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="E119">
-        <v>1.9758</v>
+        <v>5.1439000000000004</v>
       </c>
       <c r="F119">
-        <v>0.95299999999999996</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="G119">
-        <v>4336.2446570000002</v>
+        <v>14418.070669999999</v>
       </c>
       <c r="H119">
-        <v>0.1</v>
+        <v>6.3</v>
       </c>
       <c r="I119">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.948</v>
+      </c>
+      <c r="K119">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>114</v>
       </c>
       <c r="B120">
-        <v>9.3000000000000007</v>
+        <v>3.7</v>
       </c>
       <c r="C120">
-        <v>12.3</v>
+        <v>5.2</v>
       </c>
       <c r="D120">
-        <v>6.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E120">
-        <v>8.0249000000000006</v>
+        <v>4.3859000000000004</v>
       </c>
       <c r="F120">
-        <v>0.65300000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="G120">
-        <v>13599.92656</v>
+        <v>8951.0856540000004</v>
       </c>
       <c r="H120">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="I120">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="K120">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>115</v>
       </c>
       <c r="B121">
-        <v>5.0999999999999996</v>
+        <v>13.4</v>
       </c>
       <c r="C121">
-        <v>7.6</v>
+        <v>23.9</v>
       </c>
       <c r="D121">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="E121">
-        <v>5.1439000000000004</v>
+        <v>6.5164999999999997</v>
       </c>
       <c r="F121">
-        <v>0.80600000000000005</v>
+        <v>0.755</v>
       </c>
       <c r="G121">
-        <v>14418.070669999999</v>
+        <v>31336.603500000001</v>
       </c>
       <c r="H121">
-        <v>1.3</v>
+        <v>11.6</v>
       </c>
       <c r="I121">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+        <v>24.175999999999998</v>
+      </c>
+      <c r="K121">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>116</v>
       </c>
       <c r="B122">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="C122">
-        <v>5.2</v>
+        <v>14.3</v>
       </c>
       <c r="D122">
-        <v>2.2999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="E122">
-        <v>4.3859000000000004</v>
+        <v>9.0763999999999996</v>
       </c>
       <c r="F122">
-        <v>0.64</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="G122">
-        <v>8951.0856540000004</v>
+        <v>33415.437899999997</v>
       </c>
       <c r="H122">
-        <v>1.3</v>
+        <v>12.3</v>
       </c>
       <c r="I122">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="J122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+        <v>11.44</v>
+      </c>
+      <c r="K122">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>117</v>
       </c>
       <c r="B123">
-        <v>13.4</v>
+        <v>5.8</v>
       </c>
       <c r="C123">
-        <v>23.9</v>
+        <v>7.3</v>
       </c>
       <c r="D123">
-        <v>3.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E123">
-        <v>6.5164999999999997</v>
+        <v>3.0794000000000001</v>
       </c>
       <c r="F123">
-        <v>0.755</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="G123">
-        <v>31336.603500000001</v>
+        <v>126898.4259</v>
       </c>
       <c r="H123">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.7120000000000002</v>
+      </c>
+      <c r="K123">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>118</v>
       </c>
       <c r="B124">
-        <v>8.6</v>
+        <v>20.2</v>
       </c>
       <c r="C124">
-        <v>14.3</v>
+        <v>29.6</v>
       </c>
       <c r="D124">
-        <v>3.8</v>
+        <v>11.6</v>
       </c>
       <c r="E124">
-        <v>9.0763999999999996</v>
+        <v>7.3375000000000004</v>
       </c>
       <c r="F124">
-        <v>0.82399999999999995</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="G124">
-        <v>33415.437899999997</v>
+        <v>40111.775759999997</v>
       </c>
       <c r="H124">
-        <v>3.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I124">
-        <v>12.3</v>
+        <v>1</v>
       </c>
       <c r="J124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+        <v>5.7930000000000001</v>
+      </c>
+      <c r="K124">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>119</v>
       </c>
       <c r="B125">
-        <v>5.8</v>
+        <v>13.4</v>
       </c>
       <c r="C125">
-        <v>7.3</v>
+        <v>24.1</v>
       </c>
       <c r="D125">
-        <v>1.1000000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="E125">
-        <v>3.0794000000000001</v>
+        <v>8.9809999999999999</v>
       </c>
       <c r="F125">
-        <v>0.53100000000000003</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="G125">
-        <v>126898.4259</v>
+        <v>7271.6419189999997</v>
       </c>
       <c r="H125">
-        <v>2.8</v>
+        <v>15.2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+        <v>4.55</v>
+      </c>
+      <c r="K125">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>120</v>
       </c>
       <c r="B126">
-        <v>20.2</v>
+        <v>6.2</v>
       </c>
       <c r="C126">
-        <v>29.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D126">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="E126">
-        <v>7.3375000000000004</v>
+        <v>6.3441000000000001</v>
       </c>
       <c r="F126">
-        <v>0.69299999999999995</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="G126">
-        <v>40111.775759999997</v>
+        <v>20689.98675</v>
       </c>
       <c r="H126">
-        <v>2.4</v>
+        <v>8.1</v>
       </c>
       <c r="I126">
-        <v>10.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14.428000000000001</v>
+      </c>
+      <c r="K126">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>121</v>
       </c>
       <c r="B127">
-        <v>13.4</v>
+        <v>8</v>
       </c>
       <c r="C127">
-        <v>24.1</v>
+        <v>13.9</v>
       </c>
       <c r="D127">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="E127">
-        <v>8.9809999999999999</v>
+        <v>4.9804000000000004</v>
       </c>
       <c r="F127">
-        <v>0.85499999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="G127">
-        <v>7271.6419189999997</v>
+        <v>28206.357049999999</v>
       </c>
       <c r="H127">
-        <v>3.2</v>
+        <v>12.6</v>
       </c>
       <c r="I127">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="J127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+        <v>5.665</v>
+      </c>
+      <c r="K127">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>122</v>
       </c>
       <c r="B128">
-        <v>6.2</v>
+        <v>26.5</v>
       </c>
       <c r="C128">
-        <v>9.6999999999999993</v>
+        <v>48.3</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="E128">
-        <v>6.3441000000000001</v>
+        <v>5.2710999999999997</v>
       </c>
       <c r="F128">
-        <v>0.63700000000000001</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="G128">
-        <v>20689.98675</v>
+        <v>27147.333579999999</v>
       </c>
       <c r="H128">
-        <v>2.9</v>
+        <v>11.7</v>
       </c>
       <c r="I128">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+        <v>8.4789999999999992</v>
+      </c>
+      <c r="K128">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>123</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C129">
-        <v>13.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D129">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="E129">
-        <v>4.9804000000000004</v>
+        <v>6.7606999999999999</v>
       </c>
       <c r="F129">
-        <v>0.75</v>
+        <v>1.012</v>
       </c>
       <c r="G129">
-        <v>28206.357049999999</v>
+        <v>2251.556388</v>
       </c>
       <c r="H129">
-        <v>2.2999999999999998</v>
+        <v>9</v>
       </c>
       <c r="I129">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.06</v>
+      </c>
+      <c r="K129">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>124</v>
       </c>
       <c r="B130">
-        <v>26.5</v>
+        <v>7.3</v>
       </c>
       <c r="C130">
-        <v>48.3</v>
+        <v>12.7</v>
       </c>
       <c r="D130">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="E130">
-        <v>5.2710999999999997</v>
+        <v>5.3066000000000004</v>
       </c>
       <c r="F130">
-        <v>0.79800000000000004</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="G130">
-        <v>27147.333579999999</v>
+        <v>13881.37213</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>9.9</v>
       </c>
       <c r="I130">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="K130">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>125</v>
       </c>
       <c r="B131">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="C131">
-        <v>16.899999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="D131">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="E131">
-        <v>6.7606999999999999</v>
+        <v>3.5629</v>
       </c>
       <c r="F131">
-        <v>1.012</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="G131">
-        <v>2251.556388</v>
+        <v>12287.9755</v>
       </c>
       <c r="H131">
-        <v>0.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I131">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.99</v>
+      </c>
+      <c r="K131">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>126</v>
       </c>
       <c r="B132">
-        <v>7.3</v>
+        <v>5.4</v>
       </c>
       <c r="C132">
-        <v>12.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D132">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E132">
-        <v>5.3066000000000004</v>
+        <v>5.5320999999999998</v>
       </c>
       <c r="F132">
-        <v>0.82399999999999995</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="G132">
-        <v>13881.37213</v>
+        <v>6483.5342280000004</v>
       </c>
       <c r="H132">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="I132">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.548</v>
+      </c>
+      <c r="K132">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>127</v>
       </c>
       <c r="B133">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="C133">
-        <v>3.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D133">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="E133">
-        <v>3.5629</v>
+        <v>5.7417999999999996</v>
       </c>
       <c r="F133">
-        <v>0.71199999999999997</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="G133">
-        <v>12287.9755</v>
+        <v>55335.67959</v>
       </c>
       <c r="H133">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="I133">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.321</v>
+      </c>
+      <c r="K133">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>128</v>
       </c>
       <c r="B134">
-        <v>5.4</v>
+        <v>11.8</v>
       </c>
       <c r="C134">
-        <v>8.6999999999999993</v>
+        <v>20.3</v>
       </c>
       <c r="D134">
-        <v>2.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="E134">
-        <v>5.5320999999999998</v>
+        <v>5.6005000000000003</v>
       </c>
       <c r="F134">
-        <v>0.40100000000000002</v>
+        <v>0.749</v>
       </c>
       <c r="G134">
-        <v>6483.5342280000004</v>
+        <v>3782.5386130000002</v>
       </c>
       <c r="H134">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="I134">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+      <c r="K134">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>129</v>
       </c>
       <c r="B135">
-        <v>3.4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C135">
-        <v>4.5999999999999996</v>
+        <v>18.2</v>
       </c>
       <c r="D135">
-        <v>1.7</v>
+        <v>14.2</v>
       </c>
       <c r="E135">
-        <v>5.7417999999999996</v>
+        <v>16.531700000000001</v>
       </c>
       <c r="F135">
-        <v>0.24099999999999999</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="G135">
-        <v>55335.67959</v>
+        <v>1601.974029</v>
       </c>
       <c r="H135">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="I135">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K135">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>130</v>
       </c>
       <c r="B136">
-        <v>11.8</v>
+        <v>7.9</v>
       </c>
       <c r="C136">
-        <v>20.3</v>
+        <v>11.1</v>
       </c>
       <c r="D136">
-        <v>5.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E136">
-        <v>5.6005000000000003</v>
+        <v>4.4695999999999998</v>
       </c>
       <c r="F136">
-        <v>0.749</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="G136">
-        <v>3782.5386130000002</v>
+        <v>101531.6302</v>
       </c>
       <c r="H136">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="K136">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>131</v>
       </c>
       <c r="B137">
-        <v>16.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="C137">
-        <v>18.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D137">
-        <v>14.2</v>
+        <v>2.6</v>
       </c>
       <c r="E137">
-        <v>16.531700000000001</v>
+        <v>7.1250999999999998</v>
       </c>
       <c r="F137">
-        <v>0.95399999999999996</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="G137">
-        <v>1601.974029</v>
+        <v>33736.40094</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="I137">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+        <v>11.5</v>
+      </c>
+      <c r="K137">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>132</v>
       </c>
       <c r="B138">
-        <v>7.9</v>
+        <v>13.3</v>
       </c>
       <c r="C138">
-        <v>11.1</v>
+        <v>22.4</v>
       </c>
       <c r="D138">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E138">
-        <v>4.4695999999999998</v>
+        <v>8.4682999999999993</v>
       </c>
       <c r="F138">
-        <v>0.76100000000000001</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="G138">
-        <v>101531.6302</v>
+        <v>38048.784659999998</v>
       </c>
       <c r="H138">
-        <v>2.2999999999999998</v>
+        <v>12.6</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+        <v>11.952999999999999</v>
+      </c>
+      <c r="K138">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>133</v>
       </c>
       <c r="B139">
-        <v>10.1</v>
+        <v>5.9</v>
       </c>
       <c r="C139">
-        <v>18.399999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="D139">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="E139">
-        <v>7.1250999999999998</v>
+        <v>5.1707000000000001</v>
       </c>
       <c r="F139">
-        <v>0.74199999999999999</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G139">
-        <v>33736.40094</v>
+        <v>2422.8195329999999</v>
       </c>
       <c r="H139">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="I139">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+      <c r="K139">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>134</v>
       </c>
       <c r="B140">
-        <v>13.3</v>
+        <v>12.8</v>
       </c>
       <c r="C140">
-        <v>22.4</v>
+        <v>21.7</v>
       </c>
       <c r="D140">
-        <v>4.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E140">
-        <v>8.4682999999999993</v>
+        <v>8.1097999999999999</v>
       </c>
       <c r="F140">
-        <v>0.82399999999999995</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="G140">
-        <v>38048.784659999998</v>
+        <v>13686.88236</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I140">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="K140">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>135</v>
       </c>
       <c r="B141">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="C141">
-        <v>8.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D141">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E141">
-        <v>5.1707000000000001</v>
+        <v>8.9703999999999997</v>
       </c>
       <c r="F141">
-        <v>0.67500000000000004</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="G141">
-        <v>2422.8195329999999</v>
+        <v>39715.439059999997</v>
       </c>
       <c r="H141">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="I141">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+        <v>9.6940000000000008</v>
+      </c>
+      <c r="K141">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>136</v>
       </c>
       <c r="B142">
-        <v>12.8</v>
+        <v>14.2</v>
       </c>
       <c r="C142">
-        <v>21.7</v>
+        <v>23.3</v>
       </c>
       <c r="D142">
-        <v>5.0999999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="E142">
-        <v>8.1097999999999999</v>
+        <v>3.8932000000000002</v>
       </c>
       <c r="F142">
-        <v>0.73699999999999999</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="G142">
-        <v>13686.88236</v>
+        <v>13473.66309</v>
       </c>
       <c r="H142">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="I142">
-        <v>9.3000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="K142">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>137</v>
       </c>
       <c r="B143">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
       <c r="C143">
-        <v>9.3000000000000007</v>
+        <v>14.5</v>
       </c>
       <c r="D143">
-        <v>3.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E143">
-        <v>8.9703999999999997</v>
+        <v>5.6649000000000003</v>
       </c>
       <c r="F143">
-        <v>0.79100000000000004</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="G143">
-        <v>39715.439059999997</v>
+        <v>4759.2818820000002</v>
       </c>
       <c r="H143">
-        <v>4.0999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="I143">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.08</v>
+      </c>
+      <c r="K143">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>138</v>
       </c>
       <c r="B144">
-        <v>14.2</v>
+        <v>23.2</v>
       </c>
       <c r="C144">
-        <v>23.3</v>
+        <v>36.1</v>
       </c>
       <c r="D144">
-        <v>6.2</v>
+        <v>10.9</v>
       </c>
       <c r="E144">
-        <v>3.8932000000000002</v>
+        <v>6.0641999999999996</v>
       </c>
       <c r="F144">
-        <v>0.45800000000000002</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="G144">
-        <v>13473.66309</v>
+        <v>15510.46464</v>
       </c>
       <c r="H144">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>4.3</v>
-      </c>
       <c r="J144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="K144">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>139</v>
       </c>
       <c r="B145">
-        <v>9.5</v>
+        <v>11.7</v>
       </c>
       <c r="C145">
-        <v>14.5</v>
+        <v>15.8</v>
       </c>
       <c r="D145">
-        <v>4.5999999999999996</v>
+        <v>7.4</v>
       </c>
       <c r="E145">
-        <v>5.6649000000000003</v>
+        <v>10.934799999999999</v>
       </c>
       <c r="F145">
-        <v>0.41099999999999998</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="G145">
-        <v>4759.2818820000002</v>
+        <v>53208.884359999996</v>
       </c>
       <c r="H145">
-        <v>0.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I145">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+        <v>20.863</v>
+      </c>
+      <c r="K145">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>140</v>
       </c>
       <c r="B146">
-        <v>23.2</v>
+        <v>11.3</v>
       </c>
       <c r="C146">
-        <v>36.1</v>
+        <v>15.8</v>
       </c>
       <c r="D146">
-        <v>10.9</v>
+        <v>6.9</v>
       </c>
       <c r="E146">
-        <v>6.0641999999999996</v>
+        <v>12.2476</v>
       </c>
       <c r="F146">
-        <v>0.58699999999999997</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="G146">
-        <v>15510.46464</v>
+        <v>68060.941049999994</v>
       </c>
       <c r="H146">
-        <v>1.2</v>
+        <v>11.5</v>
       </c>
       <c r="I146">
-        <v>5.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="J146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+        <v>43.956000000000003</v>
+      </c>
+      <c r="K146">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>141</v>
       </c>
       <c r="B147">
-        <v>11.7</v>
+        <v>3.3</v>
       </c>
       <c r="C147">
-        <v>15.8</v>
+        <v>5</v>
       </c>
       <c r="D147">
-        <v>7.4</v>
+        <v>1.7</v>
       </c>
       <c r="E147">
-        <v>10.934799999999999</v>
+        <v>6.9984999999999999</v>
       </c>
       <c r="F147">
-        <v>0.88400000000000001</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="G147">
-        <v>53208.884359999996</v>
+        <v>3449.7793160000001</v>
       </c>
       <c r="H147">
+        <v>3.3</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="K147">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>163</v>
+      </c>
+      <c r="B148">
+        <v>9.6</v>
+      </c>
+      <c r="C148">
+        <v>14.3</v>
+      </c>
+      <c r="D148">
         <v>5.4</v>
       </c>
-      <c r="I147">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J147">
+      <c r="E148">
+        <v>4.1398999999999999</v>
+      </c>
+      <c r="F148">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="G148">
+        <v>3227.0342110000001</v>
+      </c>
+      <c r="H148">
+        <v>9.4</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K148">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149">
+        <v>12.9</v>
+      </c>
+      <c r="C149">
+        <v>21.4</v>
+      </c>
+      <c r="D149">
+        <v>4.8</v>
+      </c>
+      <c r="E149">
+        <v>3.7113999999999998</v>
+      </c>
+      <c r="F149">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="G149">
+        <v>19051.33338</v>
+      </c>
+      <c r="H149">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I149">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>142</v>
-      </c>
-      <c r="B148">
-        <v>11.3</v>
-      </c>
-      <c r="C148">
-        <v>15.8</v>
-      </c>
-      <c r="D148">
-        <v>6.9</v>
-      </c>
-      <c r="E148">
-        <v>12.2476</v>
-      </c>
-      <c r="F148">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="G148">
-        <v>68060.941049999994</v>
-      </c>
-      <c r="H148">
-        <v>4.2</v>
-      </c>
-      <c r="I148">
-        <v>11.5</v>
-      </c>
-      <c r="J148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="J149">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="K149">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>143</v>
       </c>
-      <c r="B149">
-        <v>3.3</v>
-      </c>
-      <c r="C149">
-        <v>5</v>
-      </c>
-      <c r="D149">
-        <v>1.7</v>
-      </c>
-      <c r="E149">
-        <v>6.9984999999999999</v>
-      </c>
-      <c r="F149">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="G149">
-        <v>3449.7793160000001</v>
-      </c>
-      <c r="H149">
-        <v>1.7</v>
-      </c>
-      <c r="I149">
-        <v>3.3</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>165</v>
-      </c>
       <c r="B150">
-        <v>9.6</v>
+        <v>6.4</v>
       </c>
       <c r="C150">
-        <v>14.3</v>
+        <v>9</v>
       </c>
       <c r="D150">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="E150">
-        <v>4.1398999999999999</v>
+        <v>4.0206</v>
       </c>
       <c r="F150">
-        <v>0.97699999999999998</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="G150">
-        <v>3227.0342110000001</v>
+        <v>7658.434996</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I150">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>144</v>
       </c>
       <c r="B151">
-        <v>12.9</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C151">
-        <v>21.4</v>
+        <v>22.7</v>
       </c>
       <c r="D151">
-        <v>4.8</v>
+        <v>10.9</v>
       </c>
       <c r="E151">
-        <v>3.7113999999999998</v>
+        <v>6.6157000000000004</v>
       </c>
       <c r="F151">
-        <v>0.79700000000000004</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="G151">
-        <v>19051.33338</v>
+        <v>1773.896632</v>
       </c>
       <c r="H151">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="I151">
-        <v>8.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K151">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>145</v>
       </c>
       <c r="B152">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="C152">
-        <v>9</v>
+        <v>5.2</v>
       </c>
       <c r="D152">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="E152">
-        <v>4.0206</v>
+        <v>5.2638999999999996</v>
       </c>
       <c r="F152">
-        <v>0.48299999999999998</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="G152">
-        <v>7658.434996</v>
+        <v>6419.5617780000002</v>
       </c>
       <c r="H152">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="I152">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>146</v>
       </c>
       <c r="B153">
-        <v>16.600000000000001</v>
+        <v>12.9</v>
       </c>
       <c r="C153">
-        <v>22.7</v>
+        <v>21.9</v>
       </c>
       <c r="D153">
-        <v>10.9</v>
+        <v>4.3</v>
       </c>
       <c r="E153">
-        <v>6.6157000000000004</v>
+        <v>6.5103999999999997</v>
       </c>
       <c r="F153">
-        <v>0.99399999999999999</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="G153">
-        <v>1773.896632</v>
+        <v>32014.78313</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="I153">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.8</v>
+      </c>
+      <c r="K153">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>147</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="C154">
-        <v>5.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D154">
-        <v>2.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E154">
-        <v>5.2638999999999996</v>
+        <v>6.952</v>
       </c>
       <c r="F154">
-        <v>0.71499999999999997</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="G154">
-        <v>6419.5617780000002</v>
+        <v>12502.82019</v>
       </c>
       <c r="H154">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="I154">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.46</v>
+      </c>
+      <c r="K154">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>148</v>
       </c>
       <c r="B155">
-        <v>12.9</v>
+        <v>7.2</v>
       </c>
       <c r="C155">
-        <v>21.9</v>
+        <v>11.3</v>
       </c>
       <c r="D155">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="E155">
-        <v>6.5103999999999997</v>
+        <v>4.3143000000000002</v>
       </c>
       <c r="F155">
-        <v>0.70099999999999996</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="G155">
-        <v>32014.78313</v>
+        <v>28068.859410000001</v>
       </c>
       <c r="H155">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="J155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.637</v>
+      </c>
+      <c r="K155">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>149</v>
       </c>
       <c r="B156">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="C156">
-        <v>4.4000000000000004</v>
+        <v>11</v>
       </c>
       <c r="D156">
-        <v>2.2000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="E156">
-        <v>6.952</v>
+        <v>6.6180000000000003</v>
       </c>
       <c r="F156">
-        <v>0.35599999999999998</v>
+        <v>0.61</v>
       </c>
       <c r="G156">
-        <v>12502.82019</v>
+        <v>19304.101309999998</v>
       </c>
       <c r="H156">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="I156">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="J156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K156">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>150</v>
       </c>
       <c r="B157">
-        <v>7.2</v>
+        <v>20</v>
       </c>
       <c r="C157">
-        <v>11.3</v>
+        <v>21.2</v>
       </c>
       <c r="D157">
-        <v>3.2</v>
+        <v>18.7</v>
       </c>
       <c r="E157">
-        <v>4.3143000000000002</v>
+        <v>6.165</v>
       </c>
       <c r="F157">
-        <v>0.41499999999999998</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="G157">
-        <v>28068.859410000001</v>
+        <v>2038.0738919999999</v>
       </c>
       <c r="H157">
-        <v>1.8</v>
+        <v>9.5</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K157">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>174</v>
+      </c>
+      <c r="B158">
+        <v>7.6</v>
+      </c>
+      <c r="C158">
+        <v>11.9</v>
+      </c>
+      <c r="D158">
+        <v>3.5</v>
+      </c>
+      <c r="E158">
+        <v>9.7622999999999998</v>
+      </c>
+      <c r="F158">
+        <v>0.81</v>
+      </c>
+      <c r="G158">
+        <v>45973.573499999999</v>
+      </c>
+      <c r="H158">
+        <v>11.4</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="K158">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>151</v>
       </c>
-      <c r="B158">
-        <v>7.2</v>
-      </c>
-      <c r="C158">
-        <v>11</v>
-      </c>
-      <c r="D158">
-        <v>3.7</v>
-      </c>
-      <c r="E158">
-        <v>6.6180000000000003</v>
-      </c>
-      <c r="F158">
-        <v>0.61</v>
-      </c>
-      <c r="G158">
-        <v>19304.101309999998</v>
-      </c>
-      <c r="H158">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I158">
-        <v>5.4</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+      <c r="B159">
+        <v>18.5</v>
+      </c>
+      <c r="C159">
+        <v>34.5</v>
+      </c>
+      <c r="D159">
+        <v>4.7</v>
+      </c>
+      <c r="E159">
+        <v>6.7270000000000003</v>
+      </c>
+      <c r="F159">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G159">
+        <v>9233.1504690000002</v>
+      </c>
+      <c r="H159">
+        <v>8.6</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>6.93</v>
+      </c>
+      <c r="K159">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>152</v>
       </c>
-      <c r="B159">
-        <v>20</v>
-      </c>
-      <c r="C159">
-        <v>21.2</v>
-      </c>
-      <c r="D159">
-        <v>18.7</v>
-      </c>
-      <c r="E159">
-        <v>6.165</v>
-      </c>
-      <c r="F159">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="G159">
-        <v>2038.0738919999999</v>
-      </c>
-      <c r="H159">
-        <v>0.1</v>
-      </c>
-      <c r="I159">
-        <v>9.5</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>178</v>
-      </c>
       <c r="B160">
-        <v>7.6</v>
+        <v>2.7</v>
       </c>
       <c r="C160">
-        <v>11.9</v>
+        <v>3.5</v>
       </c>
       <c r="D160">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="E160">
-        <v>9.7622999999999998</v>
+        <v>3.5167999999999999</v>
       </c>
       <c r="F160">
-        <v>0.81</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="G160">
-        <v>45973.573499999999</v>
+        <v>75075.257410000006</v>
       </c>
       <c r="H160">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="I160">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="J160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.649</v>
+      </c>
+      <c r="K160">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>153</v>
       </c>
       <c r="B161">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="C161">
-        <v>34.5</v>
+        <v>26.8</v>
       </c>
       <c r="D161">
-        <v>4.7</v>
+        <v>7.1</v>
       </c>
       <c r="E161">
-        <v>6.7270000000000003</v>
+        <v>9.0608000000000004</v>
       </c>
       <c r="F161">
-        <v>0.79600000000000004</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="G161">
-        <v>9233.1504690000002</v>
+        <v>23572.177459999999</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>10.8</v>
       </c>
       <c r="I161">
-        <v>8.6</v>
+        <v>1</v>
       </c>
       <c r="J161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14.134</v>
+      </c>
+      <c r="K161">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162">
+        <v>13.7</v>
+      </c>
+      <c r="C162">
+        <v>21.1</v>
+      </c>
+      <c r="D162">
+        <v>6.4</v>
+      </c>
+      <c r="E162">
+        <v>17.073399999999999</v>
+      </c>
+      <c r="F162">
+        <v>0.82</v>
+      </c>
+      <c r="G162">
+        <v>62794.585650000001</v>
+      </c>
+      <c r="H162">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>10.542</v>
+      </c>
+      <c r="K162">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>154</v>
       </c>
-      <c r="B162">
+      <c r="B163">
+        <v>7.4</v>
+      </c>
+      <c r="C163">
+        <v>10.3</v>
+      </c>
+      <c r="D163">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E163">
+        <v>6.3352000000000004</v>
+      </c>
+      <c r="F163">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="G163">
+        <v>8556.051512</v>
+      </c>
+      <c r="H163">
         <v>2.7</v>
       </c>
-      <c r="C162">
-        <v>3.5</v>
-      </c>
-      <c r="D162">
-        <v>0.8</v>
-      </c>
-      <c r="E162">
-        <v>3.5167999999999999</v>
-      </c>
-      <c r="F162">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="G162">
-        <v>75075.257410000006</v>
-      </c>
-      <c r="H162">
-        <v>2.4</v>
-      </c>
-      <c r="I162">
-        <v>3.8</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>2.6120000000000001</v>
+      </c>
+      <c r="K163">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>155</v>
       </c>
-      <c r="B163">
-        <v>16.5</v>
-      </c>
-      <c r="C163">
-        <v>26.8</v>
-      </c>
-      <c r="D163">
-        <v>7.1</v>
-      </c>
-      <c r="E163">
-        <v>9.0608000000000004</v>
-      </c>
-      <c r="F163">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="G163">
-        <v>23572.177459999999</v>
-      </c>
-      <c r="H163">
-        <v>5</v>
-      </c>
-      <c r="I163">
-        <v>10.8</v>
-      </c>
-      <c r="J163">
+      <c r="B164">
+        <v>5.4</v>
+      </c>
+      <c r="C164">
+        <v>8.1</v>
+      </c>
+      <c r="D164">
+        <v>2.7</v>
+      </c>
+      <c r="E164">
+        <v>3.6918000000000002</v>
+      </c>
+      <c r="F164">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="G164">
+        <v>3221.1498230000002</v>
+      </c>
+      <c r="H164">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>171</v>
-      </c>
-      <c r="B164">
-        <v>13.7</v>
-      </c>
-      <c r="C164">
-        <v>21.1</v>
-      </c>
-      <c r="D164">
-        <v>6.4</v>
-      </c>
-      <c r="E164">
-        <v>17.073399999999999</v>
-      </c>
-      <c r="F164">
-        <v>0.82</v>
-      </c>
-      <c r="G164">
-        <v>62794.585650000001</v>
-      </c>
-      <c r="H164">
-        <v>2.6</v>
-      </c>
       <c r="I164">
-        <v>9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.378</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>156</v>
       </c>
       <c r="B165">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="C165">
-        <v>10.3</v>
+        <v>10.8</v>
       </c>
       <c r="D165">
-        <v>4.5999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="E165">
-        <v>6.3352000000000004</v>
+        <v>5.6592000000000002</v>
       </c>
       <c r="F165">
-        <v>0.63700000000000001</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="G165">
-        <v>8556.051512</v>
+        <v>7447.8143339999997</v>
       </c>
       <c r="H165">
-        <v>2.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I165">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="J165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.35</v>
+      </c>
+      <c r="K165">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>157</v>
       </c>
       <c r="B166">
-        <v>5.4</v>
+        <v>11.3</v>
       </c>
       <c r="C166">
-        <v>8.1</v>
+        <v>17.5</v>
       </c>
       <c r="D166">
-        <v>2.7</v>
+        <v>6.2</v>
       </c>
       <c r="E166">
-        <v>3.6918000000000002</v>
+        <v>4.4771999999999998</v>
       </c>
       <c r="F166">
-        <v>0.76600000000000001</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="G166">
-        <v>3221.1498230000002</v>
+        <v>4223.9069360000003</v>
       </c>
       <c r="H166">
-        <v>0.2</v>
+        <v>4.8</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K166">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B167">
-        <v>3.8</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C167">
-        <v>6.6</v>
+        <v>29.1</v>
       </c>
       <c r="D167">
-        <v>1.2</v>
+        <v>11.1</v>
       </c>
       <c r="E167">
-        <v>3.2170999999999998</v>
+        <v>9.4137000000000004</v>
       </c>
       <c r="F167">
-        <v>0.64300000000000002</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="G167">
-        <v>17131.39</v>
+        <v>3029.793005</v>
       </c>
       <c r="H167">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="I167">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="J167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>158</v>
-      </c>
-      <c r="B168">
-        <v>7</v>
-      </c>
-      <c r="C168">
-        <v>10.8</v>
-      </c>
-      <c r="D168">
-        <v>3.4</v>
-      </c>
-      <c r="E168">
-        <v>5.6592000000000002</v>
-      </c>
-      <c r="F168">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="G168">
-        <v>7447.8143339999997</v>
-      </c>
-      <c r="H168">
-        <v>0.8</v>
-      </c>
-      <c r="I168">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>159</v>
-      </c>
-      <c r="B169">
-        <v>11.3</v>
-      </c>
-      <c r="C169">
-        <v>17.5</v>
-      </c>
-      <c r="D169">
-        <v>6.2</v>
-      </c>
-      <c r="E169">
-        <v>4.4771999999999998</v>
-      </c>
-      <c r="F169">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="G169">
-        <v>4223.9069360000003</v>
-      </c>
-      <c r="H169">
-        <v>0.1</v>
-      </c>
-      <c r="I169">
-        <v>4.8</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>160</v>
-      </c>
-      <c r="B170">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C170">
-        <v>29.1</v>
-      </c>
-      <c r="D170">
-        <v>11.1</v>
-      </c>
-      <c r="E170">
-        <v>9.4137000000000004</v>
-      </c>
-      <c r="F170">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="G170">
-        <v>3029.793005</v>
-      </c>
-      <c r="H170">
-        <v>0.1</v>
-      </c>
-      <c r="I170">
-        <v>4.8</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K167">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{D8AC7A4B-2BE4-4588-A86E-6A33867E707D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J170">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:K1" xr:uid="{54A851CF-E18F-449F-8CDA-20FA6DFD3AB1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>